--- a/Volkswagen/Documents/数据库表结构_20140820_V3.xlsx
+++ b/Volkswagen/Documents/数据库表结构_20140820_V3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表1 设备履历" sheetId="1" r:id="rId1"/>
@@ -4252,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5840,7 +5840,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A26"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6723,12 +6723,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="1" customWidth="1"/>

--- a/Volkswagen/Documents/数据库表结构_20140820_V3.xlsx
+++ b/Volkswagen/Documents/数据库表结构_20140820_V3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="表1 设备履历" sheetId="1" r:id="rId1"/>
@@ -2649,7 +2649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2723,6 +2723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3029,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3052,11 +3055,11 @@
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -3160,7 +3163,7 @@
       <c r="F6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3260,7 +3263,7 @@
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3417,11 +3420,11 @@
       <c r="C1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -3843,11 +3846,11 @@
       <c r="C1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -4030,11 +4033,11 @@
       <c r="C1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -4252,7 +4255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4275,11 +4278,11 @@
       <c r="C1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -4611,11 +4614,11 @@
       <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -5048,11 +5051,11 @@
         <v>122</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -5380,11 +5383,11 @@
         <v>138</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -5862,11 +5865,11 @@
         <v>177</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -6390,11 +6393,11 @@
         <v>233</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -6749,11 +6752,11 @@
       <c r="C1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -7154,11 +7157,11 @@
       <c r="C1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
